--- a/biology/Médecine/Shuji_Ogino/Shuji_Ogino.xlsx
+++ b/biology/Médecine/Shuji_Ogino/Shuji_Ogino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shuji Ogino (荻野周史, Ogino Shuji), né le 24 avril 1968 est un épidémiologiste pathologique moléculaire, pathologiste et épidémiologiste. Il est actuellement professeur en pathologie à Harvard Medical School, Brigham and Women's Hospital et à l’Institut du Cancer Dana-Farber. Il est également professeur agrégé au département d’épidémiologie de la Harvard T.H. Chan School of Public Health. Il est connu pour avoir travaillé à l'établissement d'une nouvelle discipline : l'épidémiologie pathologique moléculaire (abrégé MPE en anglais), qui représente une science à la croisée de la pathologie moléculaire et de l'épidémiologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation et positions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ogino est diplômé de la faculté de médecine de l’université de Tokyo (promotion 1993), et titulaire d’un Ph.D. obtenu en 2001 au sein de cette même université. Il a effectué un stage à l’US Naval Hospital d’Okinawa au Japon de 1994 à 1995. </t>
